--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\world\PycharmProjects\fastApi_YLAB_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9DE89-81B9-47D0-9FF5-087914EF5B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99AF6EC-2793-4BE6-8CEE-FA373A7B00B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,15 +135,9 @@
     <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
   </si>
   <si>
-    <t>9bc1fc99-c53e-42ae-adec-6fe466b40100</t>
-  </si>
-  <si>
     <t>9bc1fc99-c53e-42ae-adec-6fe466b40101</t>
   </si>
   <si>
-    <t>9bc1fc99-c53e-42ae-adec-6fe466b40102</t>
-  </si>
-  <si>
     <t>9bc1fc99-c53e-42ae-adec-6fe466b40103</t>
   </si>
   <si>
@@ -196,6 +190,12 @@
   </si>
   <si>
     <t>0.9</t>
+  </si>
+  <si>
+    <t>9182db3c-78eb-4589-8220-70063da368e9</t>
+  </si>
+  <si>
+    <t>56de208d-ac1f-438a-9cf2-3c61a04a3f67</t>
   </si>
 </sst>
 </file>
@@ -497,13 +497,13 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="87" customWidth="1"/>
     <col min="2" max="2" width="24.5703125" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="6" customWidth="1"/>
@@ -513,7 +513,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -528,7 +528,7 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -543,7 +543,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -555,14 +555,14 @@
         <v>182.99</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
@@ -574,14 +574,14 @@
         <v>215.36</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -596,7 +596,7 @@
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -611,7 +611,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -623,14 +623,14 @@
         <v>166.47</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -646,7 +646,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -675,7 +675,7 @@
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -690,7 +690,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>21</v>
@@ -706,7 +706,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>23</v>
@@ -722,7 +722,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>25</v>
@@ -737,7 +737,7 @@
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -752,7 +752,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
@@ -768,7 +768,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>31</v>
@@ -784,7 +784,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>33</v>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\world\PycharmProjects\fastApi_YLAB_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99AF6EC-2793-4BE6-8CEE-FA373A7B00B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C28F21-6A55-404B-A81B-F8FB583E1E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="5535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -192,10 +192,10 @@
     <t>0.9</t>
   </si>
   <si>
-    <t>9182db3c-78eb-4589-8220-70063da368e9</t>
-  </si>
-  <si>
-    <t>56de208d-ac1f-438a-9cf2-3c61a04a3f67</t>
+    <t>c1b96367-fed4-4fa2-82ed-a7cdc5c993bf</t>
+  </si>
+  <si>
+    <t>d302f068-a245-4d59-b3eb-cc6e0e715200</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1780,5 +1780,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\world\PycharmProjects\fastApi_YLAB_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C28F21-6A55-404B-A81B-F8FB583E1E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC73586-CD20-4887-8F8A-F1384D455AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="5535" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Меню</t>
   </si>
@@ -135,18 +135,6 @@
     <t>Нарезка из ветчины, колбасных колечек, нескольких сортов сыра и фруктов</t>
   </si>
   <si>
-    <t>9bc1fc99-c53e-42ae-adec-6fe466b40101</t>
-  </si>
-  <si>
-    <t>9bc1fc99-c53e-42ae-adec-6fe466b40103</t>
-  </si>
-  <si>
-    <t>9bc1fc99-c53e-42ae-adec-6fe466b40104</t>
-  </si>
-  <si>
-    <t>9bc1fc99-c53e-42ae-adec-6fe466b40105</t>
-  </si>
-  <si>
     <t>9bc1fc99-c53e-42ae-adec-6fe466b40106</t>
   </si>
   <si>
@@ -192,10 +180,19 @@
     <t>0.9</t>
   </si>
   <si>
-    <t>c1b96367-fed4-4fa2-82ed-a7cdc5c993bf</t>
-  </si>
-  <si>
-    <t>d302f068-a245-4d59-b3eb-cc6e0e715200</t>
+    <t>0c29b18e-cd6d-465f-9a83-cff925a57186</t>
+  </si>
+  <si>
+    <t>46770ab1-cfba-4855-9f70-51fb73e60f9c</t>
+  </si>
+  <si>
+    <t>959624fc-c147-4541-ba0b-56c80f6f88e1</t>
+  </si>
+  <si>
+    <t>93492af9-8490-440f-8dfe-d600e396277f</t>
+  </si>
+  <si>
+    <t>ba6b4dfc-eb1e-44df-a9df-d532feec53c0</t>
   </si>
 </sst>
 </file>
@@ -498,13 +495,13 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="87" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="77.7109375" style="6" customWidth="1"/>
@@ -513,7 +510,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -528,7 +525,7 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -543,7 +540,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -555,14 +552,14 @@
         <v>182.99</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
@@ -574,14 +571,14 @@
         <v>215.36</v>
       </c>
       <c r="G4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -596,7 +593,7 @@
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -611,7 +608,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -623,14 +620,14 @@
         <v>166.47</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -646,7 +643,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -675,7 +672,7 @@
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -690,7 +687,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>21</v>
@@ -706,7 +703,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>23</v>
@@ -722,7 +719,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>25</v>
@@ -737,7 +734,7 @@
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -752,7 +749,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
@@ -768,7 +765,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>31</v>
@@ -784,7 +781,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>33</v>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\world\PycharmProjects\fastApi_YLAB_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC73586-CD20-4887-8F8A-F1384D455AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5093A4DC-26F4-4225-8FE4-329FFD96CAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5445" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Меню</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>ba6b4dfc-eb1e-44df-a9df-d532feec53c0</t>
+  </si>
+  <si>
+    <t>93492af9-8490-440f-8dfe-d600e396297f</t>
   </si>
 </sst>
 </file>
@@ -495,13 +498,13 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
     <col min="3" max="3" width="45.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="77.7109375" style="6" customWidth="1"/>
@@ -593,7 +596,7 @@
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\world\PycharmProjects\fastApi_YLAB_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5093A4DC-26F4-4225-8FE4-329FFD96CAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10062FD1-5A14-40A9-93C5-BBF4F8A3436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="3240" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>Джек Дэниелс</t>
   </si>
   <si>
-    <t>Характерен мягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
-  </si>
-  <si>
     <t>Чивас Ригал</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>93492af9-8490-440f-8dfe-d600e396297f</t>
+  </si>
+  <si>
+    <t>Характерфывфывмягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -513,7 +513,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -528,7 +528,7 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -543,7 +543,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>4</v>
@@ -555,33 +555,33 @@
         <v>182.99</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1">
         <v>215.36</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -596,7 +596,7 @@
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -611,7 +611,7 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -623,14 +623,14 @@
         <v>166.47</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>13</v>
@@ -646,7 +646,7 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>15</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -675,7 +675,7 @@
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -690,7 +690,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>21</v>
@@ -706,7 +706,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>23</v>
@@ -722,7 +722,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>25</v>
@@ -737,7 +737,7 @@
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>27</v>
@@ -752,7 +752,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>29</v>
@@ -768,13 +768,13 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1">
         <v>440.11</v>
@@ -784,13 +784,13 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="F18" s="1">
         <v>888.08</v>

--- a/Menu.xlsx
+++ b/Menu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\world\PycharmProjects\fastApi_YLAB_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10062FD1-5A14-40A9-93C5-BBF4F8A3436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B376222-CB1B-48EA-9964-6D5B20F6BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Меню</t>
   </si>
   <si>
-    <t>Основное меню</t>
-  </si>
-  <si>
     <t>Холодные закуски</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Дайзу рамен</t>
   </si>
   <si>
-    <t>Рамен на курином бульоне с куриными подушками и яйцом аджитама, яично-пшеничной лапшой, ростки зелени, грибами муэр и зеленым луком</t>
-  </si>
-  <si>
     <t>Унаги рамен</t>
   </si>
   <si>
@@ -196,6 +190,12 @@
   </si>
   <si>
     <t>Характерфывфывмягкий вкус, сочетает в себе карамельно-ванильные и древесные нотки. Легкий привкус дыма.</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>Основное мен</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -513,13 +513,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -528,13 +528,13 @@
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="1"/>
@@ -543,51 +543,51 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="F3" s="1">
         <v>182.99</v>
       </c>
       <c r="G3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1">
         <v>215.36</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="F5" s="1">
         <v>265.57</v>
@@ -596,13 +596,13 @@
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="1"/>
@@ -611,32 +611,32 @@
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="F7" s="1">
         <v>166.47</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1">
         <v>168.25</v>
@@ -646,13 +646,13 @@
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
         <v>132.88</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
@@ -675,13 +675,13 @@
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="1"/>
@@ -690,13 +690,13 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>2700.79</v>
@@ -706,13 +706,13 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F13" s="1">
         <v>3100.33</v>
@@ -722,13 +722,13 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F14" s="1">
         <v>1850.42</v>
@@ -737,13 +737,13 @@
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="1"/>
@@ -752,13 +752,13 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="1">
         <v>420.78</v>
@@ -768,13 +768,13 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1">
         <v>440.11</v>
@@ -784,13 +784,13 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1">
         <v>888.08</v>
